--- a/Building Inputs.xlsx
+++ b/Building Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://renewev.sharepoint.com/sites/RenewEV/Shared Documents/General/Client Folder/Matthew Clay Architects/Huffs Barton/Heat Loss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="8_{97D7B963-B0F3-4A66-B7AD-D76BDB850017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77D31D03-88C7-47EB-9946-990EAC1C1D87}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="8_{97D7B963-B0F3-4A66-B7AD-D76BDB850017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1479D79C-4029-4423-AFE3-2F49D8D2308D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4DC85739-C396-4A92-AA6F-846F06B67DF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4DC85739-C396-4A92-AA6F-846F06B67DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="106">
   <si>
     <t>Mains Gas</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>heating degree days @11C</t>
+  </si>
+  <si>
+    <t>Chim)Flow</t>
+  </si>
+  <si>
+    <t>chimney ventilation flow rate in m3/hr</t>
   </si>
 </sst>
 </file>
@@ -813,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1A7E6D-4977-4943-99E1-D1CDDBB3C5A7}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -859,6 +865,17 @@
         <v>43</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -868,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CEE8F2-FA07-4ADF-A99A-4E3C017DB70B}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>

--- a/Building Inputs.xlsx
+++ b/Building Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://renewev.sharepoint.com/sites/RenewEV/Shared Documents/General/Client Folder/Matthew Clay Architects/Huffs Barton/Heat Loss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="8_{97D7B963-B0F3-4A66-B7AD-D76BDB850017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1479D79C-4029-4423-AFE3-2F49D8D2308D}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="8_{97D7B963-B0F3-4A66-B7AD-D76BDB850017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1809E505-A538-4AF3-85C3-5D25A63B6897}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4DC85739-C396-4A92-AA6F-846F06B67DF9}"/>
   </bookViews>
@@ -355,10 +355,10 @@
     <t>heating degree days @11C</t>
   </si>
   <si>
-    <t>Chim)Flow</t>
-  </si>
-  <si>
     <t>chimney ventilation flow rate in m3/hr</t>
+  </si>
+  <si>
+    <t>Chim_Flow</t>
   </si>
 </sst>
 </file>
@@ -822,7 +822,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -867,13 +867,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4">
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Building Inputs.xlsx
+++ b/Building Inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://renewev.sharepoint.com/sites/RenewEV/Shared Documents/General/Client Folder/Matthew Clay Architects/Huffs Barton/Heat Loss/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\GitHub\RenewEV-Heat-Loss-Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="8_{97D7B963-B0F3-4A66-B7AD-D76BDB850017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1809E505-A538-4AF3-85C3-5D25A63B6897}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8463F5-EFD2-49DF-8381-CFF3C6E766A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4DC85739-C396-4A92-AA6F-846F06B67DF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4DC85739-C396-4A92-AA6F-846F06B67DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="4" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="Fuel" sheetId="1" r:id="rId3"/>
     <sheet name="DHW" sheetId="3" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
   <si>
     <t>Mains Gas</t>
   </si>
@@ -55,9 +52,6 @@
     <t>LPG</t>
   </si>
   <si>
-    <t>UK Gov Jan 2022</t>
-  </si>
-  <si>
     <t>Fuel</t>
   </si>
   <si>
@@ -199,18 +193,6 @@
     <t xml:space="preserve">https://www.forestresearch.gov.uk/tools-and-resources/fthr/biomass-energy-resources/reference-biomass/facts-figures/typical-calorific-values-of-fuels/ </t>
   </si>
   <si>
-    <t>Capex</t>
-  </si>
-  <si>
-    <t>Opex cost of current fuel, (£)</t>
-  </si>
-  <si>
-    <t>An_year</t>
-  </si>
-  <si>
-    <t>Years of analysis for showing future savings, (year)</t>
-  </si>
-  <si>
     <t>SS_Upgrade</t>
   </si>
   <si>
@@ -226,18 +208,6 @@
     <t>upgraded source of secondary heating</t>
   </si>
   <si>
-    <t>Opex_C</t>
-  </si>
-  <si>
-    <t>Opex_U</t>
-  </si>
-  <si>
-    <t>Opex cost of upgraded fuel, (£)</t>
-  </si>
-  <si>
-    <t>cost of installing new heating system, (£)</t>
-  </si>
-  <si>
     <t>Misc_losses</t>
   </si>
   <si>
@@ -250,9 +220,6 @@
     <t>HP_SCOP</t>
   </si>
   <si>
-    <t>seasonal coefficient of performance of heat pump, (-)</t>
-  </si>
-  <si>
     <t>L_Fuel_Cost</t>
   </si>
   <si>
@@ -295,12 +262,6 @@
     <t>high fuel cost, (pence/unit)</t>
   </si>
   <si>
-    <t>low electricity cost, in (pence/kWh)</t>
-  </si>
-  <si>
-    <t>high electricity unit cost, (pence/kWh)</t>
-  </si>
-  <si>
     <t>high standing costs for electricity, (£/year)</t>
   </si>
   <si>
@@ -337,12 +298,6 @@
     <t>S_1_E = Scope 1 Emissions</t>
   </si>
   <si>
-    <t>Int</t>
-  </si>
-  <si>
-    <t>Annual interest rate</t>
-  </si>
-  <si>
     <t>A_Cost</t>
   </si>
   <si>
@@ -352,13 +307,37 @@
     <t>HDD</t>
   </si>
   <si>
-    <t>heating degree days @11C</t>
-  </si>
-  <si>
     <t>chimney ventilation flow rate in m3/hr</t>
   </si>
   <si>
     <t>Chim_Flow</t>
+  </si>
+  <si>
+    <t>UK Gov Jun 2022</t>
+  </si>
+  <si>
+    <t>Wood Logs</t>
+  </si>
+  <si>
+    <t>Wood Chips</t>
+  </si>
+  <si>
+    <t>Wood Pellets</t>
+  </si>
+  <si>
+    <t>seasonal coefficient of performance of heat pump, (-), also boiler efficiency for biomass</t>
+  </si>
+  <si>
+    <t>heating degree days @15.5C</t>
+  </si>
+  <si>
+    <t>high electricity unit cost, (pence/kWh) or biomass cost in £/m3</t>
+  </si>
+  <si>
+    <t>(kWh/m3) for biomass fuels</t>
+  </si>
+  <si>
+    <t>low electricity cost, in (pence/kWh) or biomass cost in £/m3.</t>
   </si>
 </sst>
 </file>
@@ -446,80 +425,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="HDD_11C Huffs Barton Monthly"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="B8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>3.8</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>18.3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>115.7</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>128</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>197.8</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>115.3</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>118</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>85.9</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>15.6</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>5.3</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -821,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1A7E6D-4977-4943-99E1-D1CDDBB3C5A7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -834,46 +739,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>2006</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>-3.3</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -883,10 +788,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CEE8F2-FA07-4ADF-A99A-4E3C017DB70B}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -896,313 +801,261 @@
     <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
       <c r="B4" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2">
         <v>0.9</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2">
+        <v>66.95</v>
+      </c>
+      <c r="C10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="2">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="2">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="2">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="2">
-        <v>21.67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="2">
-        <v>100</v>
-      </c>
-      <c r="C14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="2">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>72</v>
+      </c>
+      <c r="K16">
+        <f>(41.32*365)/100</f>
+        <v>150.81799999999998</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B17" s="2">
-        <v>40</v>
+        <v>27.1</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B18" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B22" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B23" s="2">
-        <v>80</v>
+        <v>1862</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="2">
-        <v>250</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="2">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="C26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1600</v>
-      </c>
-      <c r="C27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="2">
-        <f>SUM('[1]HDD_11C Huffs Barton Monthly'!$B$8:$B$19)</f>
-        <v>804.3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1224,15 +1077,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAF67B1-FE4B-4C86-B94F-EEEADEB23BDB}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
@@ -1242,48 +1095,48 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1291,7 +1144,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>0.21448999999999999</v>
+        <v>0.21418999999999999</v>
       </c>
       <c r="C3">
         <v>6.6</v>
@@ -1300,10 +1153,13 @@
         <v>12.9</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>79</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1311,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.24676999999999999</v>
+        <v>0.24576999999999999</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1325,13 +1181,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>0.21232999999999999</v>
+        <v>0.19338</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1339,18 +1195,60 @@
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>0.18315999999999999</v>
+        <v>0.18218999999999999</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.0529999999999999E-2</v>
+      </c>
+      <c r="C7">
+        <v>1700</v>
+      </c>
+      <c r="D7">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0529999999999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>870</v>
+      </c>
+      <c r="D8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.0529999999999999E-2</v>
+      </c>
+      <c r="C9">
+        <v>3100</v>
+      </c>
+      <c r="D9">
+        <v>4.8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{1FE1CB93-D7BB-4ECD-A792-7CA6EE6E558F}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{1FE1CB93-D7BB-4ECD-A792-7CA6EE6E558F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1361,7 +1259,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1373,156 +1271,156 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2">
         <v>365</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Building Inputs.xlsx
+++ b/Building Inputs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\GitHub\RenewEV-Heat-Loss-Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8463F5-EFD2-49DF-8381-CFF3C6E766A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AFD59C-BC40-4774-847A-45C1824717E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4DC85739-C396-4A92-AA6F-846F06B67DF9}"/>
   </bookViews>
@@ -1429,26 +1429,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da34839-94b1-4adb-9ce9-2bf1180dd981">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e21e7998-6f05-4771-9945-6b2b40d9b8dc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005E6C8E2BBE97A449BF587258ABB90B5C" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5eb41d99e8045b1ea23e3130f9c056a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9da34839-94b1-4adb-9ce9-2bf1180dd981" xmlns:ns3="e21e7998-6f05-4771-9945-6b2b40d9b8dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ce28474f22b5c1e192d9e04bf26745d" ns2:_="" ns3:_="">
     <xsd:import namespace="9da34839-94b1-4adb-9ce9-2bf1180dd981"/>
@@ -1685,10 +1665,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da34839-94b1-4adb-9ce9-2bf1180dd981">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e21e7998-6f05-4771-9945-6b2b40d9b8dc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{013B9DE5-433C-4872-A67A-A923ADA49568}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A36C1314-7D46-48D4-913B-3A67CABA1D62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9da34839-94b1-4adb-9ce9-2bf1180dd981"/>
+    <ds:schemaRef ds:uri="e21e7998-6f05-4771-9945-6b2b40d9b8dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1711,20 +1722,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A36C1314-7D46-48D4-913B-3A67CABA1D62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{013B9DE5-433C-4872-A67A-A923ADA49568}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9da34839-94b1-4adb-9ce9-2bf1180dd981"/>
-    <ds:schemaRef ds:uri="e21e7998-6f05-4771-9945-6b2b40d9b8dc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>